--- a/data/evaluation/evaluation_Center_Summer_Peppers.xlsx
+++ b/data/evaluation/evaluation_Center_Summer_Peppers.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>985.3155558217671</v>
+        <v>978.317182311125</v>
       </c>
       <c r="C4" t="n">
-        <v>5877647.676897652</v>
+        <v>5855796.435656592</v>
       </c>
       <c r="D4" t="n">
-        <v>2424.386041227273</v>
+        <v>2419.875293410095</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04077422856651869</v>
+        <v>0.04434032760621098</v>
       </c>
     </row>
     <row r="5">
